--- a/DataSheets/TestSheet.xlsx
+++ b/DataSheets/TestSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Colum1</t>
   </si>
@@ -38,15 +38,6 @@
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>e</t>
   </si>
 </sst>
 </file>
@@ -389,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,48 +392,36 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
